--- a/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/PROIECTIE_SALARII_CLOUDIFIER.xlsx
+++ b/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/PROIECTIE_SALARII_CLOUDIFIER.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,24 +376,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -404,6 +386,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,83 +793,83 @@
         <v>22</v>
       </c>
       <c r="D2" s="8">
-        <f>D8+D13+D23-D1</f>
+        <f t="shared" ref="D2:T2" si="2">D8+D13+D23-D1</f>
         <v>6267.25</v>
       </c>
       <c r="E2" s="8">
-        <f>E8+E13+E23-E1</f>
+        <f t="shared" si="2"/>
         <v>6267.25</v>
       </c>
       <c r="F2" s="8">
-        <f>F8+F13+F23-F1</f>
+        <f t="shared" si="2"/>
         <v>6267.25</v>
       </c>
       <c r="G2" s="8">
-        <f>G8+G13+G23-G1</f>
+        <f t="shared" si="2"/>
         <v>6267.25</v>
       </c>
       <c r="H2" s="8">
-        <f>H8+H13+H23-H1</f>
+        <f t="shared" si="2"/>
         <v>5132.0500000000011</v>
       </c>
       <c r="I2" s="8">
-        <f>I8+I13+I23-I1</f>
+        <f t="shared" si="2"/>
         <v>6078.0500000000029</v>
       </c>
       <c r="J2" s="8">
-        <f>J8+J13+J23-J1</f>
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="Q2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="2"/>
+        <v>6034.0500000000029</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="2"/>
         <v>6078.0500000000029</v>
       </c>
-      <c r="K2" s="8">
-        <f>K8+K13+K23-K1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="L2" s="8">
-        <f>L8+L13+L23-L1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="M2" s="8">
-        <f>M8+M13+M23-M1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="N2" s="8">
-        <f>N8+N13+N23-N1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="O2" s="8">
-        <f>O8+O13+O23-O1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="P2" s="8">
-        <f>P8+P13+P23-P1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>Q8+Q13+Q23-Q1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="R2" s="8">
-        <f>R8+R13+R23-R1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="S2" s="8">
-        <f>S8+S13+S23-S1</f>
-        <v>6078.0500000000029</v>
-      </c>
-      <c r="T2" s="8">
-        <f>T8+T13+T23-T1</f>
-        <v>6078.0500000000029</v>
-      </c>
       <c r="U2" s="8">
-        <f t="shared" ref="U2:W2" si="2">U8+U13+U23-U1</f>
+        <f t="shared" ref="U2:W2" si="3">U8+U13+U23-U1</f>
         <v>6078.523000000001</v>
       </c>
       <c r="V2" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6078.9960000000028</v>
       </c>
       <c r="W2" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>947.41900000000032</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1013,80 +1013,80 @@
         <v>160</v>
       </c>
       <c r="F5" s="42">
-        <f t="shared" ref="F5:T5" si="3">E5</f>
+        <f t="shared" ref="F5:T5" si="4">E5</f>
         <v>160</v>
       </c>
       <c r="G5" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H5" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="I5" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="J5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="K5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="L5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="M5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="N5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="O5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="P5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="Q5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="R5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="S5" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="T5" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="U5" s="44">
-        <f t="shared" ref="U5" si="4">T5</f>
+        <f t="shared" ref="U5" si="5">T5</f>
         <v>160</v>
       </c>
       <c r="V5" s="44">
-        <f t="shared" ref="V5" si="5">U5</f>
+        <f t="shared" ref="V5" si="6">U5</f>
         <v>160</v>
       </c>
       <c r="W5" s="44">
-        <f t="shared" ref="W5" si="6">V5</f>
+        <f t="shared" ref="W5" si="7">V5</f>
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="49"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="49"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1161,84 +1161,84 @@
         <v>12993.96</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" ref="E7:T7" si="7">E6*1.1976</f>
+        <f t="shared" ref="E7:T7" si="8">E6*1.1976</f>
         <v>12993.96</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="R7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="S7" s="10">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" si="7"/>
-        <v>12993.96</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" ref="U7:W7" si="8">U6*1.1976</f>
-        <v>12993.96</v>
-      </c>
-      <c r="V7" s="11">
         <f t="shared" si="8"/>
         <v>12993.96</v>
       </c>
+      <c r="G7" s="9">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="8"/>
+        <v>12993.96</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" ref="U7:W7" si="9">U6*1.1976</f>
+        <v>12993.96</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="9"/>
+        <v>12993.96</v>
+      </c>
       <c r="W7" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1247,116 +1247,116 @@
         <v>15982.050000000001</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" ref="E8:T8" si="9">E6*1.473</f>
+        <f t="shared" ref="E8:T8" si="10">E6*1.473</f>
         <v>15982.050000000001</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="L8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="R8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="S8" s="10">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" si="9"/>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" ref="U8:W8" si="10">U6*1.473</f>
-        <v>15982.050000000001</v>
-      </c>
-      <c r="V8" s="11">
         <f t="shared" si="10"/>
         <v>15982.050000000001</v>
       </c>
+      <c r="G8" s="9">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="10"/>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" ref="U8:W8" si="11">U6*1.473</f>
+        <v>15982.050000000001</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="11"/>
+        <v>15982.050000000001</v>
+      </c>
       <c r="W8" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:23" s="7" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="50"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="57">
         <f>SUM(D8:I8)</f>
         <v>95892.3</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47">
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="52">
         <f>SUM(J8:W8)</f>
         <v>207766.64999999997</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1371,11 +1371,11 @@
         <v>160</v>
       </c>
       <c r="F10" s="39">
-        <f t="shared" ref="F10:T10" si="11">E10</f>
+        <f t="shared" ref="F10:T10" si="12">E10</f>
         <v>160</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="H10" s="39"/>
@@ -1384,64 +1384,64 @@
         <v>42</v>
       </c>
       <c r="J10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="K10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="L10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="M10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="O10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="R10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="S10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="T10" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="U10" s="41">
-        <f t="shared" ref="U10" si="12">T10</f>
+        <f t="shared" ref="U10" si="13">T10</f>
         <v>42</v>
       </c>
       <c r="V10" s="41">
-        <f t="shared" ref="V10" si="13">U10</f>
+        <f t="shared" ref="V10" si="14">U10</f>
         <v>42</v>
       </c>
       <c r="W10" s="41">
-        <f t="shared" ref="W10" si="14">V10</f>
+        <f t="shared" ref="W10" si="15">V10</f>
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="49"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="49"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1516,84 +1516,84 @@
         <v>2874.24</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12" si="15">E11*1.1976</f>
+        <f t="shared" ref="E12" si="16">E11*1.1976</f>
         <v>2874.24</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12" si="16">F11*1.1976</f>
+        <f t="shared" ref="F12" si="17">F11*1.1976</f>
         <v>2874.24</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12" si="17">G11*1.1976</f>
+        <f t="shared" ref="G12" si="18">G11*1.1976</f>
         <v>2874.24</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ref="H12" si="18">H11*1.1976</f>
+        <f t="shared" ref="H12" si="19">H11*1.1976</f>
         <v>0</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I12" si="19">I11*1.1976</f>
+        <f t="shared" ref="I12" si="20">I11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" ref="J12" si="20">J11*1.1976</f>
+        <f t="shared" ref="J12" si="21">J11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" ref="K12" si="21">K11*1.1976</f>
+        <f t="shared" ref="K12" si="22">K11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" ref="L12" si="22">L11*1.1976</f>
+        <f t="shared" ref="L12" si="23">L11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" ref="M12" si="23">M11*1.1976</f>
+        <f t="shared" ref="M12" si="24">M11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12" si="24">N11*1.1976</f>
+        <f t="shared" ref="N12" si="25">N11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12" si="25">O11*1.1976</f>
+        <f t="shared" ref="O12" si="26">O11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12" si="26">P11*1.1976</f>
+        <f t="shared" ref="P12" si="27">P11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" ref="Q12" si="27">Q11*1.1976</f>
+        <f t="shared" ref="Q12" si="28">Q11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12" si="28">R11*1.1976</f>
+        <f t="shared" ref="R12" si="29">R11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" ref="S12" si="29">S11*1.1976</f>
+        <f t="shared" ref="S12" si="30">S11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" ref="T12:W12" si="30">T11*1.1976</f>
+        <f t="shared" ref="T12:W12" si="31">T11*1.1976</f>
         <v>2395.1999999999998</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2396.3975999999998</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2397.5952000000002</v>
       </c>
       <c r="W12" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2398.7928000000002</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="49"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1602,116 +1602,116 @@
         <v>3535.2000000000003</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" ref="E13:T13" si="31">E11*1.473</f>
+        <f t="shared" ref="E13:T13" si="32">E11*1.473</f>
         <v>3535.2000000000003</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3535.2000000000003</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3535.2000000000003</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2946</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" ref="U13:W13" si="32">U11*1.473</f>
+        <f t="shared" ref="U13:W13" si="33">U11*1.473</f>
         <v>2947.473</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2948.9460000000004</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2950.4190000000003</v>
       </c>
     </row>
     <row r="14" spans="2:23" s="7" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="50"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="57">
         <f>SUM(D13:I13)</f>
         <v>17086.800000000003</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47">
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="52">
         <f>SUM(J13:W13)</f>
         <v>41252.838000000003</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1724,79 +1724,79 @@
         <v>0</v>
       </c>
       <c r="F15" s="39">
-        <f t="shared" ref="F15" si="33">E15</f>
+        <f t="shared" ref="F15" si="34">E15</f>
         <v>0</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" ref="G15" si="34">F15</f>
+        <f t="shared" ref="G15" si="35">F15</f>
         <v>0</v>
       </c>
       <c r="H15" s="39">
         <v>0</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" ref="I15" si="35">H15</f>
+        <f t="shared" ref="I15" si="36">H15</f>
         <v>0</v>
       </c>
       <c r="J15" s="40">
-        <f t="shared" ref="J15" si="36">I15</f>
+        <f t="shared" ref="J15" si="37">I15</f>
         <v>0</v>
       </c>
       <c r="K15" s="40">
-        <f t="shared" ref="K15" si="37">J15</f>
+        <f t="shared" ref="K15" si="38">J15</f>
         <v>0</v>
       </c>
       <c r="L15" s="40">
-        <f t="shared" ref="L15" si="38">K15</f>
+        <f t="shared" ref="L15" si="39">K15</f>
         <v>0</v>
       </c>
       <c r="M15" s="40">
-        <f t="shared" ref="M15" si="39">L15</f>
+        <f t="shared" ref="M15" si="40">L15</f>
         <v>0</v>
       </c>
       <c r="N15" s="40">
-        <f t="shared" ref="N15" si="40">M15</f>
+        <f t="shared" ref="N15" si="41">M15</f>
         <v>0</v>
       </c>
       <c r="O15" s="40">
-        <f t="shared" ref="O15" si="41">N15</f>
+        <f t="shared" ref="O15" si="42">N15</f>
         <v>0</v>
       </c>
       <c r="P15" s="40">
-        <f t="shared" ref="P15" si="42">O15</f>
+        <f t="shared" ref="P15" si="43">O15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="40">
-        <f t="shared" ref="Q15" si="43">P15</f>
+        <f t="shared" ref="Q15" si="44">P15</f>
         <v>0</v>
       </c>
       <c r="R15" s="40">
-        <f t="shared" ref="R15" si="44">Q15</f>
+        <f t="shared" ref="R15" si="45">Q15</f>
         <v>0</v>
       </c>
       <c r="S15" s="40">
-        <f t="shared" ref="S15" si="45">R15</f>
+        <f t="shared" ref="S15" si="46">R15</f>
         <v>0</v>
       </c>
       <c r="T15" s="41">
-        <f t="shared" ref="T15" si="46">S15</f>
+        <f t="shared" ref="T15" si="47">S15</f>
         <v>0</v>
       </c>
       <c r="U15" s="41">
-        <f t="shared" ref="U15" si="47">T15</f>
+        <f t="shared" ref="U15" si="48">T15</f>
         <v>0</v>
       </c>
       <c r="V15" s="41">
-        <f t="shared" ref="V15" si="48">U15</f>
+        <f t="shared" ref="V15" si="49">U15</f>
         <v>0</v>
       </c>
       <c r="W15" s="41">
-        <f t="shared" ref="W15" si="49">V15</f>
+        <f t="shared" ref="W15" si="50">V15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="49"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10">
         <v>2000</v>
@@ -1846,7 +1846,7 @@
         <v>2000</v>
       </c>
       <c r="S16" s="10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="T16" s="11">
         <v>0</v>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
@@ -1871,84 +1871,84 @@
         <v>0</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17:T17" si="50">E16*1.1976</f>
+        <f t="shared" ref="E17:T17" si="51">E16*1.1976</f>
         <v>0</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="J17" s="10">
-        <f t="shared" si="50"/>
+      <c r="K17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="K17" s="10">
-        <f t="shared" si="50"/>
+      <c r="L17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="L17" s="10">
-        <f t="shared" si="50"/>
+      <c r="M17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="M17" s="10">
-        <f t="shared" si="50"/>
+      <c r="N17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="N17" s="10">
-        <f t="shared" si="50"/>
+      <c r="O17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="O17" s="10">
-        <f t="shared" si="50"/>
+      <c r="P17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="P17" s="10">
-        <f t="shared" si="50"/>
+      <c r="Q17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="50"/>
+      <c r="R17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="R17" s="10">
-        <f t="shared" si="50"/>
+      <c r="S17" s="10">
+        <f t="shared" si="51"/>
         <v>2395.1999999999998</v>
       </c>
-      <c r="S17" s="10">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
       <c r="T17" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" ref="U17:W17" si="51">U16*1.1976</f>
+        <f t="shared" ref="U17:W17" si="52">U16*1.1976</f>
         <v>0</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W17" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B18" s="49"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1957,116 +1957,116 @@
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" ref="E18:T18" si="52">E16*1.473</f>
+        <f t="shared" ref="E18:T18" si="53">E16*1.473</f>
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="52"/>
+      <c r="K18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="K18" s="10">
-        <f t="shared" si="52"/>
+      <c r="L18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="52"/>
+      <c r="M18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" si="52"/>
+      <c r="N18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="52"/>
+      <c r="O18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="O18" s="10">
-        <f t="shared" si="52"/>
+      <c r="P18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="52"/>
+      <c r="Q18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="52"/>
+      <c r="R18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="R18" s="10">
-        <f t="shared" si="52"/>
+      <c r="S18" s="10">
+        <f t="shared" si="53"/>
         <v>2946</v>
       </c>
-      <c r="S18" s="10">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
       <c r="T18" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" ref="U18:W18" si="53">U16*1.473</f>
+        <f t="shared" ref="U18:W18" si="54">U16*1.473</f>
         <v>0</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="W18" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:26" s="7" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="50"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="57">
         <f>SUM(D18:I18)</f>
-        <v>2946</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47">
+        <v>0</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="52">
         <f>SUM(J18:T18)</f>
-        <v>26514</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
+        <v>29460</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
     </row>
     <row r="20" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2079,79 +2079,79 @@
         <v>0</v>
       </c>
       <c r="F20" s="39">
-        <f t="shared" ref="F20:T20" si="54">E20</f>
+        <f t="shared" ref="F20:T20" si="55">E20</f>
         <v>0</v>
       </c>
       <c r="G20" s="39">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H20" s="39">
         <v>0</v>
       </c>
       <c r="I20" s="39">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S20" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T20" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="U20" s="41">
-        <f t="shared" ref="U20" si="55">T20</f>
+        <f t="shared" ref="U20" si="56">T20</f>
         <v>0</v>
       </c>
       <c r="V20" s="41">
-        <f t="shared" ref="V20" si="56">U20</f>
+        <f t="shared" ref="V20" si="57">U20</f>
         <v>0</v>
       </c>
       <c r="W20" s="41">
-        <f t="shared" ref="W20" si="57">V20</f>
+        <f t="shared" ref="W20" si="58">V20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B21" s="49"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B22" s="49"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="5" t="s">
         <v>1</v>
       </c>
@@ -2226,84 +2226,84 @@
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ref="E22" si="58">E21*1.1976</f>
+        <f t="shared" ref="E22" si="59">E21*1.1976</f>
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ref="F22" si="59">F21*1.1976</f>
+        <f t="shared" ref="F22" si="60">F21*1.1976</f>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22" si="60">G21*1.1976</f>
+        <f t="shared" ref="G22" si="61">G21*1.1976</f>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" ref="H22" si="61">H21*1.1976</f>
+        <f t="shared" ref="H22" si="62">H21*1.1976</f>
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" ref="I22" si="62">I21*1.1976</f>
+        <f t="shared" ref="I22" si="63">I21*1.1976</f>
         <v>0</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" ref="J22" si="63">J21*1.1976</f>
+        <f t="shared" ref="J22" si="64">J21*1.1976</f>
         <v>0</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" ref="K22" si="64">K21*1.1976</f>
+        <f t="shared" ref="K22" si="65">K21*1.1976</f>
         <v>0</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" ref="L22" si="65">L21*1.1976</f>
+        <f t="shared" ref="L22" si="66">L21*1.1976</f>
         <v>0</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" ref="M22" si="66">M21*1.1976</f>
+        <f t="shared" ref="M22" si="67">M21*1.1976</f>
         <v>0</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" ref="N22" si="67">N21*1.1976</f>
+        <f t="shared" ref="N22" si="68">N21*1.1976</f>
         <v>0</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" ref="O22" si="68">O21*1.1976</f>
+        <f t="shared" ref="O22" si="69">O21*1.1976</f>
         <v>0</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" ref="P22" si="69">P21*1.1976</f>
+        <f t="shared" ref="P22" si="70">P21*1.1976</f>
         <v>0</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" ref="Q22" si="70">Q21*1.1976</f>
+        <f t="shared" ref="Q22" si="71">Q21*1.1976</f>
         <v>0</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" ref="R22" si="71">R21*1.1976</f>
+        <f t="shared" ref="R22" si="72">R21*1.1976</f>
         <v>0</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" ref="S22" si="72">S21*1.1976</f>
+        <f t="shared" ref="S22" si="73">S21*1.1976</f>
         <v>0</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" ref="T22:W22" si="73">T21*1.1976</f>
+        <f t="shared" ref="T22:W22" si="74">T21*1.1976</f>
         <v>0</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="W22" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
@@ -2312,113 +2312,100 @@
         <v>0</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" ref="E23:T23" si="74">E21*1.473</f>
+        <f t="shared" ref="E23:T23" si="75">E21*1.473</f>
         <v>0</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="T23" s="11"/>
       <c r="U23" s="11">
-        <f t="shared" ref="U23:W23" si="75">U21*1.473</f>
+        <f t="shared" ref="U23:W23" si="76">U21*1.473</f>
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:26" s="7" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="50"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="57">
         <f>SUM(D23:I23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="51">
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="53">
         <f>SUM(J23:T23)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
+        <v>-440</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C25" s="13" t="s">
@@ -2429,86 +2416,86 @@
         <v>19517.25</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" ref="E25:W25" si="76">E8+E13+E23+E18</f>
+        <f t="shared" ref="E25:W25" si="77">E8+E13+E23+E18</f>
         <v>19517.25</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>19517.25</v>
       </c>
       <c r="G25" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>19517.25</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>15982.050000000001</v>
       </c>
       <c r="I25" s="29">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>18928.050000000003</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="M25" s="21">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="N25" s="21">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="P25" s="33">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="Q25" s="33">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="R25" s="33">
-        <f t="shared" si="76"/>
-        <v>21874.050000000003</v>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
       </c>
       <c r="S25" s="37">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
+        <v>21830.050000000003</v>
+      </c>
+      <c r="T25" s="37">
+        <f t="shared" si="77"/>
         <v>18928.050000000003</v>
       </c>
-      <c r="T25" s="37">
-        <f t="shared" si="76"/>
-        <v>18928.050000000003</v>
-      </c>
       <c r="U25" s="37">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>18929.523000000001</v>
       </c>
-      <c r="V25" s="54">
-        <f t="shared" si="76"/>
+      <c r="V25" s="48">
+        <f t="shared" si="77"/>
         <v>18930.996000000003</v>
       </c>
-      <c r="W25" s="54">
-        <f t="shared" si="76"/>
+      <c r="W25" s="48">
+        <f t="shared" si="77"/>
         <v>2950.4190000000003</v>
       </c>
-      <c r="Y25" s="53">
+      <c r="Y25" s="47">
         <f>SUM(D25:W25)</f>
-        <v>391458.58799999987</v>
-      </c>
-      <c r="Z25" s="57">
+        <v>391018.58799999987</v>
+      </c>
+      <c r="Z25" s="51">
         <f>Y25-D30</f>
         <v>0</v>
       </c>
@@ -2526,50 +2513,50 @@
       <c r="F26" s="15"/>
       <c r="G26" s="29">
         <f>G25+H25+I25</f>
-        <v>57373.350000000006</v>
+        <v>54427.350000000006</v>
       </c>
       <c r="H26" s="19">
         <f>G26*0.9</f>
-        <v>51636.015000000007</v>
+        <v>48984.615000000005</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="25">
         <f>J25+K25+L25</f>
-        <v>65622.150000000009</v>
+        <v>65490.150000000009</v>
       </c>
       <c r="K26" s="19">
         <f>J26*0.9</f>
-        <v>59059.935000000012</v>
+        <v>58941.135000000009</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="21">
         <f>M25+N25+O25</f>
-        <v>65622.150000000009</v>
+        <v>65490.150000000009</v>
       </c>
       <c r="N26" s="19">
         <f>M26*0.9</f>
-        <v>59059.935000000012</v>
+        <v>58941.135000000009</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="33">
         <f>P25+Q25+R25</f>
-        <v>65622.150000000009</v>
+        <v>65490.150000000009</v>
       </c>
       <c r="Q26" s="19">
         <f>P26*0.9</f>
-        <v>59059.935000000012</v>
+        <v>58941.135000000009</v>
       </c>
       <c r="R26" s="34"/>
       <c r="S26" s="37">
         <f>S25+T25+U25</f>
-        <v>56785.623000000007</v>
+        <v>59687.623000000007</v>
       </c>
       <c r="T26" s="19">
         <f>S26*0.9</f>
-        <v>51107.060700000009</v>
+        <v>53718.860700000005</v>
       </c>
       <c r="U26" s="37"/>
-      <c r="V26" s="54">
+      <c r="V26" s="48">
         <f>V25+W25</f>
         <v>21881.415000000005</v>
       </c>
@@ -2610,10 +2597,10 @@
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="37"/>
-      <c r="V27" s="55" t="s">
+      <c r="V27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W27" s="56"/>
+      <c r="W27" s="50"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
@@ -2621,7 +2608,7 @@
       </c>
       <c r="D28" s="8">
         <f>D9+D14+D24+D19</f>
-        <v>115925.1</v>
+        <v>112979.1</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.45">
@@ -2630,17 +2617,21 @@
       </c>
       <c r="D29" s="8">
         <f>J9+J14+J24+J19</f>
-        <v>275533.48799999995</v>
-      </c>
-      <c r="E29" s="52"/>
+        <v>278039.48799999995</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="W29">
+        <f>E34*0.9</f>
+        <v>1783.2708000000364</v>
+      </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="47">
         <f>D29+D28</f>
-        <v>391458.58799999999</v>
+        <v>391018.58799999999</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.45">
@@ -2651,6 +2642,10 @@
         <f>D32+D33</f>
         <v>393000</v>
       </c>
+      <c r="W31" s="8">
+        <f>W26+W29</f>
+        <v>21476.544300000038</v>
+      </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
@@ -2661,7 +2656,7 @@
       </c>
       <c r="E32" s="8">
         <f>D32-D28</f>
-        <v>10074.899999999994</v>
+        <v>13020.899999999994</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.45">
@@ -2673,13 +2668,13 @@
       </c>
       <c r="E33" s="8">
         <f>D33-D29</f>
-        <v>-8533.4879999999539</v>
+        <v>-11039.487999999954</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E34" s="8">
         <f>E33+E32</f>
-        <v>1541.4120000000403</v>
+        <v>1981.4120000000403</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
@@ -2687,6 +2682,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J9:W9"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="J19:W19"/>
+    <mergeCell ref="J24:W24"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B15:B19"/>
@@ -2695,10 +2694,6 @@
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J9:W9"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="J19:W19"/>
-    <mergeCell ref="J24:W24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
